--- a/BackTest/2020-01-16 BackTest WOM.xlsx
+++ b/BackTest/2020-01-16 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11869,11 +11869,17 @@
         <v>-820691.7978815067</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>57</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +11912,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +11949,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +11986,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12023,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12060,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12097,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12134,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12171,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12208,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12245,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12278,17 @@
         <v>-938660.4733815067</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>56.14</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12317,17 @@
         <v>-925832.1908815068</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>55</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12356,17 @@
         <v>-942222.3615815068</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>55.01</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12395,17 @@
         <v>-936605.9786815068</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>55</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12434,17 @@
         <v>-936605.9786815068</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>55.01</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12473,17 @@
         <v>-935666.5366815068</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>55.01</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12512,17 @@
         <v>-892805.0759815067</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>55.23</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12551,17 @@
         <v>-906016.9313815067</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>59.4</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12590,17 @@
         <v>-903899.9632815067</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>55.25</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12629,17 @@
         <v>-960676.4404815066</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>57.35</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12668,17 @@
         <v>-939391.264582386</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>54.58</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12707,17 @@
         <v>-941448.457582386</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>56.86</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12746,17 @@
         <v>-929147.346882386</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>54.61</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12785,17 @@
         <v>-948282.826382386</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>55.7</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,7 +12824,7 @@
         <v>-965945.463382386</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>54.6</v>
@@ -12702,7 +12832,7 @@
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -12733,7 +12863,7 @@
         <v>-963278.372582386</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>53.05</v>
@@ -12772,7 +12902,7 @@
         <v>-961278.372582386</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>53.25</v>
@@ -12811,7 +12941,7 @@
         <v>-975837.499582386</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>55</v>
@@ -12850,9 +12980,11 @@
         <v>-978227.3171823859</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>54.89</v>
+      </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -12887,7 +13019,7 @@
         <v>-962001.792282386</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>53.32</v>
@@ -12926,7 +13058,7 @@
         <v>-950903.357882386</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>53.43</v>
@@ -12965,7 +13097,7 @@
         <v>-972343.0301823859</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>54.88</v>
@@ -13004,7 +13136,7 @@
         <v>-955798.431882386</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>53.4</v>
@@ -13043,7 +13175,7 @@
         <v>-866643.108082386</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>54</v>
@@ -13082,9 +13214,11 @@
         <v>-813939.658082386</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>55.19</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13119,9 +13253,11 @@
         <v>-867239.152882386</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>55.2</v>
+      </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13156,9 +13292,11 @@
         <v>-868969.2827823861</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>55.19</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13193,9 +13331,11 @@
         <v>-868969.2827823861</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>54.1</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13230,9 +13370,11 @@
         <v>-907582.9170823861</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>54.1</v>
+      </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13267,7 +13409,7 @@
         <v>-907582.9170823861</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>53.36</v>
@@ -13306,7 +13448,7 @@
         <v>-942038.080282386</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>53.36</v>
@@ -13345,7 +13487,7 @@
         <v>-774220.310082386</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>53.35</v>
@@ -13384,7 +13526,7 @@
         <v>-774220.310082386</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>54.49</v>
@@ -13423,7 +13565,7 @@
         <v>-774220.310082386</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>54.49</v>
@@ -13462,7 +13604,7 @@
         <v>-783171.2474823861</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>54.49</v>
@@ -13501,7 +13643,7 @@
         <v>-801347.6885823861</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>54.39</v>
@@ -13540,7 +13682,7 @@
         <v>-794785.7744823861</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>53.26</v>
@@ -13579,7 +13721,7 @@
         <v>-806352.2720823861</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>54.51</v>
@@ -13618,7 +13760,7 @@
         <v>-792605.9035823861</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>54.5</v>
@@ -13657,7 +13799,7 @@
         <v>-772647.9032823861</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>55.7</v>
@@ -13696,7 +13838,7 @@
         <v>-786490.7624823861</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>55.97</v>
@@ -13735,7 +13877,7 @@
         <v>-770088.3449823861</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>53.41</v>
@@ -13774,7 +13916,7 @@
         <v>-778720.0613823861</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>53.73</v>
@@ -13813,7 +13955,7 @@
         <v>-812878.3483823861</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>53.72</v>
@@ -13852,7 +13994,7 @@
         <v>-812228.1697823862</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>53.5</v>
@@ -13891,7 +14033,7 @@
         <v>-801771.4732823862</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>53.51</v>
@@ -13930,7 +14072,7 @@
         <v>-788776.0386823862</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>54.19</v>
@@ -13969,7 +14111,7 @@
         <v>-788776.0386823862</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>54.31</v>
@@ -14008,7 +14150,7 @@
         <v>-789204.1198823862</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>54.31</v>
@@ -14047,7 +14189,7 @@
         <v>-789204.1198823862</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>54.19</v>
@@ -14086,7 +14228,7 @@
         <v>-790264.7871823861</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>54.19</v>
@@ -14125,7 +14267,7 @@
         <v>-790264.7871823861</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>54.1</v>
@@ -14164,7 +14306,7 @@
         <v>-790239.0632823862</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>54.1</v>
@@ -14203,7 +14345,7 @@
         <v>-792193.6101823861</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>54.93</v>
@@ -14242,7 +14384,7 @@
         <v>-788222.6985823861</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>53.81</v>
@@ -14281,7 +14423,7 @@
         <v>-787632.7427823861</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>54.12</v>
@@ -14320,7 +14462,7 @@
         <v>-785272.9194823861</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>54.15</v>
@@ -14359,9 +14501,11 @@
         <v>-782441.1315823861</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>54.2</v>
+      </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14396,7 +14540,7 @@
         <v>-781995.7375823861</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>54.31</v>
@@ -14435,7 +14579,7 @@
         <v>-781567.6563823861</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>54.97</v>
@@ -14474,7 +14618,7 @@
         <v>-779523.6202823861</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>55.24</v>
@@ -14513,9 +14657,11 @@
         <v>-779413.6202823861</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>55.7</v>
+      </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14550,9 +14696,11 @@
         <v>-764844.7417823861</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>55.82</v>
+      </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14587,9 +14735,11 @@
         <v>-782411.048282386</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>57.63</v>
+      </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14624,9 +14774,11 @@
         <v>-782411.048282386</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>55.86</v>
+      </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14661,9 +14813,11 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>55.86</v>
+      </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14698,9 +14852,11 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14735,9 +14891,11 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14772,9 +14930,11 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14809,9 +14969,11 @@
         <v>-723022.3358823861</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -14846,9 +15008,11 @@
         <v>-740249.039982386</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>56.11</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14883,9 +15047,11 @@
         <v>-740525.015482386</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>56.1</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -14920,9 +15086,11 @@
         <v>-740525.015482386</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>55.2</v>
+      </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -14957,9 +15125,11 @@
         <v>-742642.578182386</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>55.2</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14994,9 +15164,11 @@
         <v>-740469.643282386</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>54.61</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15031,9 +15203,11 @@
         <v>-769519.101182386</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>54.63</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15068,9 +15242,11 @@
         <v>-772024.5401823861</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>54.6</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15105,9 +15281,11 @@
         <v>-755510.0069823861</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>54.59</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15142,9 +15320,11 @@
         <v>-755510.0069823861</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>55.35</v>
+      </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15179,9 +15359,11 @@
         <v>-745763.491365752</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>55.35</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15216,9 +15398,11 @@
         <v>-758706.6501657519</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>56.39</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15253,9 +15437,11 @@
         <v>-768533.5428657519</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>54.63</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15290,9 +15476,11 @@
         <v>-763185.8176657519</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>54.58</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15327,9 +15515,11 @@
         <v>-779700.3508657519</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>56.02</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15364,9 +15554,11 @@
         <v>-769325.2074657518</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>54.58</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15401,9 +15593,11 @@
         <v>-768103.5480657518</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>54.99</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15438,9 +15632,11 @@
         <v>-765370.6908657518</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>55.1</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15475,9 +15671,11 @@
         <v>-765370.6908657518</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>55.3</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15512,9 +15710,11 @@
         <v>-780111.0299657518</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>55.3</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15549,9 +15749,11 @@
         <v>-779913.1881657518</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>54.99</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15586,7 +15788,7 @@
         <v>-779913.1881657518</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>55.3</v>
@@ -15625,9 +15827,11 @@
         <v>-778100.9739657517</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>55.3</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15662,9 +15866,11 @@
         <v>-778100.9739657517</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>55.73</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15699,9 +15905,11 @@
         <v>-803402.0802657517</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>55.73</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15736,9 +15944,11 @@
         <v>-864253.0857657517</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>55.6</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15773,9 +15983,11 @@
         <v>-864253.0857657517</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>55.45</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15810,9 +16022,11 @@
         <v>-864253.0857657517</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>55.45</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15847,9 +16061,11 @@
         <v>-864253.0857657517</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>55.45</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15884,9 +16100,11 @@
         <v>-864074.9913757249</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>55.45</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15921,9 +16139,11 @@
         <v>-864074.9913757249</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>56.15</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15958,9 +16178,11 @@
         <v>-864074.9913757249</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>56.15</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15995,9 +16217,11 @@
         <v>-864084.9913757249</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>56.15</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16032,9 +16256,11 @@
         <v>-864013.6439757249</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>55.45</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16069,9 +16295,11 @@
         <v>-865485.813575725</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>55.64</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16106,9 +16334,11 @@
         <v>-865485.541975725</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>55.31</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16143,9 +16373,11 @@
         <v>-849477.7715757249</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>55.65</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16180,9 +16412,11 @@
         <v>-847265.6206757249</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>56.69</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16217,9 +16451,11 @@
         <v>-847467.362575725</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>56.89</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16254,9 +16490,11 @@
         <v>-847265.6206757249</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>55.69</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16291,9 +16529,11 @@
         <v>-847265.6206757249</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>55.8</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16328,9 +16568,11 @@
         <v>-847255.6206757249</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>55.8</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16365,9 +16607,11 @@
         <v>-825882.461375725</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>56.57</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16402,9 +16646,11 @@
         <v>-823882.461375725</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>56.89</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16439,9 +16685,11 @@
         <v>-818558.386375725</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>57.19</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16476,9 +16724,11 @@
         <v>-818558.386375725</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>58.3</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16513,9 +16763,11 @@
         <v>-853445.019675725</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>58.3</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16550,9 +16802,11 @@
         <v>-975085.014875725</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>56.99</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16587,9 +16841,11 @@
         <v>-1087947.973675725</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>56.92</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16624,9 +16880,11 @@
         <v>-1007223.155075725</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>55.6</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16661,9 +16919,11 @@
         <v>-948577.294675725</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>55.63</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16698,9 +16958,11 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>56.6</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16735,9 +16997,11 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>56.73</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16772,9 +17036,11 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>56.73</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16809,9 +17075,11 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>56.73</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16846,9 +17114,11 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>57.71</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16883,9 +17153,11 @@
         <v>-934276.454675725</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>57.71</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16920,9 +17192,11 @@
         <v>-906383.552875725</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>57.99</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16957,9 +17231,11 @@
         <v>-878776.137075725</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>58.3</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16994,9 +17270,11 @@
         <v>-801832.8272021676</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>58.4</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17031,9 +17309,11 @@
         <v>-801832.8272021676</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>61</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17549,9 +17829,11 @@
         <v>-674967.0360413294</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>61.21</v>
+      </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17586,9 +17868,11 @@
         <v>-644234.8755413294</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>61.5</v>
+      </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17623,9 +17907,11 @@
         <v>-634110.7527413294</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>61.53</v>
+      </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17660,9 +17946,11 @@
         <v>-588615.6165362012</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>61.9</v>
+      </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -17993,7 +18281,7 @@
         <v>281465.0069854203</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19547,7 +19835,7 @@
         <v>1984446.125135727</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19584,7 +19872,7 @@
         <v>1796138.692035727</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19621,7 +19909,7 @@
         <v>1850195.644535727</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19769,7 +20057,7 @@
         <v>2441953.089431073</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19806,7 +20094,7 @@
         <v>2192808.174431073</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19991,18 +20279,16 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="inlineStr"/>
     </row>
     <row r="569">
@@ -20032,11 +20318,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20065,15 +20347,11 @@
         <v>2304193.471099546</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20106,11 +20384,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20139,15 +20413,11 @@
         <v>2460999.684399546</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20176,15 +20446,11 @@
         <v>2238588.752399546</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20213,15 +20479,11 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20250,15 +20512,11 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20287,15 +20545,11 @@
         <v>2314593.103199546</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20324,15 +20578,11 @@
         <v>2316777.692499546</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20361,15 +20611,11 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20398,15 +20644,11 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20435,15 +20677,11 @@
         <v>2248485.379636592</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20472,15 +20710,11 @@
         <v>2203085.752436592</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20509,15 +20743,11 @@
         <v>2203085.752436592</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20546,15 +20776,11 @@
         <v>2304814.404536592</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20583,15 +20809,11 @@
         <v>2257427.480936592</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20620,15 +20842,11 @@
         <v>2062475.27491862</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20657,15 +20875,11 @@
         <v>2236639.143900648</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20694,15 +20908,11 @@
         <v>2256542.065500648</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20731,15 +20941,11 @@
         <v>2249375.259730513</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20768,15 +20974,11 @@
         <v>2236091.972930513</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20805,15 +21007,11 @@
         <v>2177184.061830513</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20842,15 +21040,11 @@
         <v>2179683.870230513</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20879,15 +21073,11 @@
         <v>2069978.655830513</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20920,11 +21110,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20953,15 +21139,11 @@
         <v>1921817.845120701</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20994,11 +21176,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21031,11 +21209,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21068,11 +21242,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21105,11 +21275,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21308,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21179,11 +21341,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21212,15 +21370,11 @@
         <v>1980661.868820701</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21249,15 +21403,11 @@
         <v>1916680.984620701</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21286,15 +21436,11 @@
         <v>1866608.968530084</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21323,15 +21469,11 @@
         <v>1865203.705130084</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21360,15 +21502,11 @@
         <v>1880942.104730084</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21397,15 +21535,11 @@
         <v>1880910.699830084</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21434,15 +21568,11 @@
         <v>1893601.855730084</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21471,15 +21601,11 @@
         <v>1877068.821330084</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21508,15 +21634,11 @@
         <v>1911671.258679149</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21545,15 +21667,11 @@
         <v>1909268.845079148</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21586,11 +21704,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21623,11 +21737,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21660,11 +21770,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21693,15 +21799,11 @@
         <v>1815649.363389871</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21730,15 +21832,11 @@
         <v>1815706.414489871</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21767,15 +21865,11 @@
         <v>1814800.592889871</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21804,15 +21898,11 @@
         <v>1835453.925738317</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21841,15 +21931,11 @@
         <v>1834375.876638317</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21878,15 +21964,11 @@
         <v>1797618.656838317</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21919,11 +22001,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21956,11 +22034,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21993,11 +22067,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22030,11 +22100,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22067,11 +22133,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22104,11 +22166,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22141,11 +22199,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22178,11 +22232,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22215,11 +22265,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22252,11 +22298,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22289,11 +22331,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22326,11 +22364,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +22397,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22400,11 +22430,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22437,11 +22463,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22474,11 +22496,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22511,11 +22529,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22548,11 +22562,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22585,11 +22595,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22622,11 +22628,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22659,11 +22661,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22696,11 +22694,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22733,11 +22727,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22770,11 +22760,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22807,11 +22793,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22844,11 +22826,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22881,11 +22859,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22918,11 +22892,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22955,11 +22925,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22992,11 +22958,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23029,11 +22991,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23066,11 +23024,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23103,11 +23057,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23140,11 +23090,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23177,11 +23123,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23214,11 +23156,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23251,11 +23189,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23288,11 +23222,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23325,11 +23255,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23362,11 +23288,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23399,11 +23321,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23436,11 +23354,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23473,11 +23387,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23510,11 +23420,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23547,11 +23453,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23584,11 +23486,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23621,11 +23519,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23658,11 +23552,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23695,11 +23585,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23732,11 +23618,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23769,11 +23651,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23806,11 +23684,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23843,11 +23717,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23880,11 +23750,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23917,11 +23783,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23954,11 +23816,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23991,11 +23849,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24028,11 +23882,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24065,11 +23915,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24102,11 +23948,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24139,11 +23981,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24176,11 +24014,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24213,11 +24047,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24250,11 +24080,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24287,11 +24113,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24324,11 +24146,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24361,11 +24179,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24398,11 +24212,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24435,11 +24245,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24472,11 +24278,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24505,16 +24307,14 @@
         <v>2301198.50951842</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
       <c r="M690" t="inlineStr"/>
     </row>
     <row r="691">
@@ -24540,7 +24340,7 @@
         <v>2188691.614965818</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24573,7 +24373,7 @@
         <v>2114836.468960032</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24606,7 +24406,7 @@
         <v>2035717.13087588</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24639,7 +24439,7 @@
         <v>1953785.80527588</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24672,7 +24472,7 @@
         <v>2026407.95737588</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -35012,6 +34812,6 @@
       <c r="M1008" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WOM.xlsx
+++ b/BackTest/2020-01-16 BackTest WOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -11869,17 +11869,11 @@
         <v>-820691.7978815067</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11912,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11949,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11986,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12023,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12060,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12097,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12130,13 +12100,15 @@
         <v>-844673.7434815067</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>57.01</v>
+      </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L355" t="n">
@@ -12278,11 +12250,9 @@
         <v>-938660.4733815067</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>56.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -12317,11 +12287,9 @@
         <v>-925832.1908815068</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12551,11 +12519,9 @@
         <v>-906016.9313815067</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>59.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12590,11 +12556,9 @@
         <v>-903899.9632815067</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>55.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12629,11 +12593,9 @@
         <v>-960676.4404815066</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>57.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12668,11 +12630,9 @@
         <v>-939391.264582386</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>54.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12707,11 +12667,9 @@
         <v>-941448.457582386</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>56.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12746,11 +12704,9 @@
         <v>-929147.346882386</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>54.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -13838,11 +13794,9 @@
         <v>-786490.7624823861</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>55.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -14852,11 +14806,9 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>56.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14891,11 +14843,9 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>56.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14930,11 +14880,9 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>56.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -15008,11 +14956,9 @@
         <v>-740249.039982386</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>56.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -16763,11 +16709,9 @@
         <v>-853445.019675725</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>58.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -17192,11 +17136,9 @@
         <v>-906383.552875725</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>57.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -17231,11 +17173,9 @@
         <v>-878776.137075725</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>58.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -17270,11 +17210,9 @@
         <v>-801832.8272021676</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>58.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -17309,11 +17247,9 @@
         <v>-801832.8272021676</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -17829,11 +17765,9 @@
         <v>-674967.0360413294</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>61.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
@@ -17868,11 +17802,9 @@
         <v>-644234.8755413294</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>61.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
@@ -17907,11 +17839,9 @@
         <v>-634110.7527413294</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>61.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
@@ -17946,11 +17876,9 @@
         <v>-588615.6165362012</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>61.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
@@ -18207,18 +18135,16 @@
         <v>386950.9045854203</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L512" t="n">
-        <v>1</v>
-      </c>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="inlineStr"/>
     </row>
     <row r="513">
@@ -18244,15 +18170,11 @@
         <v>375270.4740854203</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18281,15 +18203,11 @@
         <v>281465.0069854203</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18318,15 +18236,11 @@
         <v>345446.4846854203</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18355,15 +18269,11 @@
         <v>421902.8978720997</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18392,15 +18302,11 @@
         <v>414800.3220720997</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18429,15 +18335,11 @@
         <v>466494.9444720997</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18466,15 +18368,11 @@
         <v>466494.9444720997</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18503,15 +18401,11 @@
         <v>385638.6361720997</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18540,15 +18434,11 @@
         <v>366645.5881720997</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18577,15 +18467,11 @@
         <v>387147.7639539079</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18614,15 +18500,11 @@
         <v>384335.815853908</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18651,15 +18533,11 @@
         <v>426986.231453908</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18688,15 +18566,11 @@
         <v>384593.899553908</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18725,15 +18599,11 @@
         <v>436001.234353908</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18762,15 +18632,11 @@
         <v>434435.271753908</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18799,15 +18665,11 @@
         <v>494889.857653908</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18836,15 +18698,11 @@
         <v>494889.857653908</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18873,15 +18731,11 @@
         <v>500565.184253908</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18910,15 +18764,11 @@
         <v>500565.184253908</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18947,15 +18797,11 @@
         <v>777418.8095884699</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18984,15 +18830,11 @@
         <v>540969.34238847</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19021,15 +18863,11 @@
         <v>541307.1160812828</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19058,15 +18896,11 @@
         <v>776196.92708847</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19095,15 +18929,11 @@
         <v>945189.76458847</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19132,15 +18962,11 @@
         <v>872541.1205780049</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19169,15 +18995,11 @@
         <v>822336.5273780049</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19206,15 +19028,11 @@
         <v>1294251.287878005</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19243,15 +19061,11 @@
         <v>1462624.747923733</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19280,15 +19094,11 @@
         <v>1434573.699384222</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19317,15 +19127,11 @@
         <v>1818707.049184222</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19358,11 +19164,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19395,11 +19197,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19432,11 +19230,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19469,11 +19263,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19506,11 +19296,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19543,11 +19329,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19580,11 +19362,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19617,11 +19395,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19654,11 +19428,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19691,11 +19461,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19728,11 +19494,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19765,11 +19527,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19802,11 +19560,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19839,11 +19593,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19876,11 +19626,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19913,11 +19659,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19950,11 +19692,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +19725,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20024,11 +19758,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20061,11 +19791,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20098,11 +19824,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20135,11 +19857,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20172,11 +19890,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20209,11 +19923,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20246,11 +19956,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20279,16 +19985,14 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
       <c r="M568" t="inlineStr"/>
     </row>
     <row r="569">
@@ -20347,7 +20051,7 @@
         <v>2304193.471099546</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20413,7 +20117,7 @@
         <v>2460999.684399546</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20446,7 +20150,7 @@
         <v>2238588.752399546</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20479,7 +20183,7 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20512,7 +20216,7 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20545,7 +20249,7 @@
         <v>2314593.103199546</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20578,7 +20282,7 @@
         <v>2316777.692499546</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20611,7 +20315,7 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20644,7 +20348,7 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20677,7 +20381,7 @@
         <v>2248485.379636592</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20710,7 +20414,7 @@
         <v>2203085.752436592</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20743,7 +20447,7 @@
         <v>2203085.752436592</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20776,7 +20480,7 @@
         <v>2304814.404536592</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20908,7 +20612,7 @@
         <v>2256542.065500648</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20941,7 +20645,7 @@
         <v>2249375.259730513</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20974,7 +20678,7 @@
         <v>2236091.972930513</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21007,7 +20711,7 @@
         <v>2177184.061830513</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21040,7 +20744,7 @@
         <v>2179683.870230513</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21073,7 +20777,7 @@
         <v>2069978.655830513</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21139,7 +20843,7 @@
         <v>1921817.845120701</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21370,7 +21074,7 @@
         <v>1980661.868820701</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21403,7 +21107,7 @@
         <v>1916680.984620701</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21436,7 +21140,7 @@
         <v>1866608.968530084</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21469,7 +21173,7 @@
         <v>1865203.705130084</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21502,7 +21206,7 @@
         <v>1880942.104730084</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21535,7 +21239,7 @@
         <v>1880910.699830084</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21568,7 +21272,7 @@
         <v>1893601.855730084</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21601,7 +21305,7 @@
         <v>1877068.821330084</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21634,7 +21338,7 @@
         <v>1911671.258679149</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21667,7 +21371,7 @@
         <v>1909268.845079148</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21799,7 +21503,7 @@
         <v>1815649.363389871</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21832,7 +21536,7 @@
         <v>1815706.414489871</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21865,7 +21569,7 @@
         <v>1814800.592889871</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21898,7 +21602,7 @@
         <v>1835453.925738317</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21931,7 +21635,7 @@
         <v>1834375.876638317</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21964,7 +21668,7 @@
         <v>1797618.656838317</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24373,7 +24077,7 @@
         <v>2114836.468960032</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -34812,6 +34516,6 @@
       <c r="M1008" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WOM.xlsx
+++ b/BackTest/2020-01-16 BackTest WOM.xlsx
@@ -12100,892 +12100,802 @@
         <v>-844673.7434815067</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
         <v>57.01</v>
       </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
+      <c r="C356" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="D356" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="E356" t="n">
+        <v>57.01</v>
+      </c>
+      <c r="F356" t="n">
+        <v>13889.2557</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-844673.7434815067</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="C357" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="D357" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="E357" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="F357" t="n">
+        <v>25.0074</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-844698.7508815067</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>56.42</v>
+      </c>
+      <c r="C358" t="n">
+        <v>56.14</v>
+      </c>
+      <c r="D358" t="n">
+        <v>56.43</v>
+      </c>
+      <c r="E358" t="n">
+        <v>56.14</v>
+      </c>
+      <c r="F358" t="n">
+        <v>61674.2167</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-906372.9675815067</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C359" t="n">
+        <v>55</v>
+      </c>
+      <c r="D359" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E359" t="n">
+        <v>55</v>
+      </c>
+      <c r="F359" t="n">
+        <v>32287.5058</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-938660.4733815067</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>55</v>
+      </c>
+      <c r="C360" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="D360" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E360" t="n">
+        <v>55</v>
+      </c>
+      <c r="F360" t="n">
+        <v>12828.2825</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-925832.1908815068</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C361" t="n">
+        <v>55</v>
+      </c>
+      <c r="D361" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E361" t="n">
+        <v>55</v>
+      </c>
+      <c r="F361" t="n">
+        <v>16390.1707</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-942222.3615815068</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="C362" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="D362" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="E362" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="F362" t="n">
+        <v>5616.3829</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-936605.9786815068</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C363" t="n">
+        <v>55.01</v>
+      </c>
+      <c r="D363" t="n">
+        <v>56.56</v>
+      </c>
+      <c r="E363" t="n">
+        <v>55</v>
+      </c>
+      <c r="F363" t="n">
+        <v>33275.6048</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-936605.9786815068</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="C364" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="D364" t="n">
+        <v>58.71</v>
+      </c>
+      <c r="E364" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="F364" t="n">
+        <v>939.442</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-935666.5366815068</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="C365" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="D365" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="E365" t="n">
+        <v>55.23</v>
+      </c>
+      <c r="F365" t="n">
+        <v>42861.4607</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-892805.0759815067</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="C366" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="D366" t="n">
+        <v>57.71</v>
+      </c>
+      <c r="E366" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="F366" t="n">
+        <v>13211.8554</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-906016.9313815067</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="C367" t="n">
+        <v>57.35</v>
+      </c>
+      <c r="D367" t="n">
+        <v>57.55</v>
+      </c>
+      <c r="E367" t="n">
+        <v>55.25</v>
+      </c>
+      <c r="F367" t="n">
+        <v>2116.9681</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-903899.9632815067</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>57.03</v>
+      </c>
+      <c r="C368" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="D368" t="n">
+        <v>57.03</v>
+      </c>
+      <c r="E368" t="n">
+        <v>54.58</v>
+      </c>
+      <c r="F368" t="n">
+        <v>56776.4772</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-960676.4404815066</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="C369" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="D369" t="n">
+        <v>56.86</v>
+      </c>
+      <c r="E369" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="F369" t="n">
+        <v>21285.17589912065</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-939391.264582386</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="C370" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="D370" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="E370" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2057.193</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-941448.457582386</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C371" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D371" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E371" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="F371" t="n">
+        <v>12301.1107</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-929147.346882386</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="C372" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D372" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="E372" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F372" t="n">
+        <v>19135.4795</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-948282.826382386</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>54.59</v>
+      </c>
+      <c r="C373" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="D373" t="n">
+        <v>54.59</v>
+      </c>
+      <c r="E373" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="F373" t="n">
+        <v>17662.637</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-965945.463382386</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="C374" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="D374" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="E374" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="F374" t="n">
+        <v>2667.0908</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-963278.372582386</v>
+      </c>
+      <c r="H374" t="n">
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="J374" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>54.57</v>
+      </c>
+      <c r="C375" t="n">
+        <v>55</v>
+      </c>
+      <c r="D375" t="n">
+        <v>55</v>
+      </c>
+      <c r="E375" t="n">
+        <v>54.57</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-961278.372582386</v>
+      </c>
+      <c r="H375" t="n">
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="J375" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>53.31</v>
+      </c>
+      <c r="C376" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="D376" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="E376" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F376" t="n">
+        <v>14559.127</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-975837.499582386</v>
+      </c>
+      <c r="H376" t="n">
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>55</v>
+      </c>
+      <c r="J376" t="n">
+        <v>53.05</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="C377" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="D377" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="E377" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="F377" t="n">
+        <v>2389.8176</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-978227.3171823859</v>
+      </c>
+      <c r="H377" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="J377" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>53.43</v>
+      </c>
+      <c r="C378" t="n">
+        <v>53.43</v>
+      </c>
+      <c r="D378" t="n">
+        <v>53.43</v>
+      </c>
+      <c r="E378" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="F378" t="n">
+        <v>16225.5249</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-962001.792282386</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>53.32</v>
+      </c>
+      <c r="J378" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K378" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="C356" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="D356" t="n">
-        <v>57.02</v>
-      </c>
-      <c r="E356" t="n">
-        <v>57.01</v>
-      </c>
-      <c r="F356" t="n">
-        <v>13889.2557</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-844673.7434815067</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>56.42</v>
-      </c>
-      <c r="C357" t="n">
-        <v>56.42</v>
-      </c>
-      <c r="D357" t="n">
-        <v>56.42</v>
-      </c>
-      <c r="E357" t="n">
-        <v>56.42</v>
-      </c>
-      <c r="F357" t="n">
-        <v>25.0074</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-844698.7508815067</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>56.42</v>
-      </c>
-      <c r="C358" t="n">
-        <v>56.14</v>
-      </c>
-      <c r="D358" t="n">
-        <v>56.43</v>
-      </c>
-      <c r="E358" t="n">
-        <v>56.14</v>
-      </c>
-      <c r="F358" t="n">
-        <v>61674.2167</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-906372.9675815067</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="C359" t="n">
-        <v>55</v>
-      </c>
-      <c r="D359" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E359" t="n">
-        <v>55</v>
-      </c>
-      <c r="F359" t="n">
-        <v>32287.5058</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-938660.4733815067</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>55</v>
-      </c>
-      <c r="C360" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="D360" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E360" t="n">
-        <v>55</v>
-      </c>
-      <c r="F360" t="n">
-        <v>12828.2825</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-925832.1908815068</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C361" t="n">
-        <v>55</v>
-      </c>
-      <c r="D361" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E361" t="n">
-        <v>55</v>
-      </c>
-      <c r="F361" t="n">
-        <v>16390.1707</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-942222.3615815068</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="C362" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="D362" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="E362" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="F362" t="n">
-        <v>5616.3829</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-936605.9786815068</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>55</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C363" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="D363" t="n">
-        <v>56.56</v>
-      </c>
-      <c r="E363" t="n">
-        <v>55</v>
-      </c>
-      <c r="F363" t="n">
-        <v>33275.6048</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-936605.9786815068</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>57.02</v>
-      </c>
-      <c r="C364" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="D364" t="n">
-        <v>58.71</v>
-      </c>
-      <c r="E364" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="F364" t="n">
-        <v>939.442</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-935666.5366815068</v>
-      </c>
-      <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>55.01</v>
-      </c>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="C365" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="D365" t="n">
-        <v>59.4</v>
-      </c>
-      <c r="E365" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="F365" t="n">
-        <v>42861.4607</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-892805.0759815067</v>
-      </c>
-      <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>57.71</v>
-      </c>
-      <c r="C366" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="D366" t="n">
-        <v>57.71</v>
-      </c>
-      <c r="E366" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="F366" t="n">
-        <v>13211.8554</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-906016.9313815067</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="C367" t="n">
-        <v>57.35</v>
-      </c>
-      <c r="D367" t="n">
-        <v>57.55</v>
-      </c>
-      <c r="E367" t="n">
-        <v>55.25</v>
-      </c>
-      <c r="F367" t="n">
-        <v>2116.9681</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-903899.9632815067</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>57.03</v>
-      </c>
-      <c r="C368" t="n">
-        <v>54.58</v>
-      </c>
-      <c r="D368" t="n">
-        <v>57.03</v>
-      </c>
-      <c r="E368" t="n">
-        <v>54.58</v>
-      </c>
-      <c r="F368" t="n">
-        <v>56776.4772</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-960676.4404815066</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="C369" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="D369" t="n">
-        <v>56.86</v>
-      </c>
-      <c r="E369" t="n">
-        <v>55.02</v>
-      </c>
-      <c r="F369" t="n">
-        <v>21285.17589912065</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-939391.264582386</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="C370" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="D370" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="E370" t="n">
-        <v>54.61</v>
-      </c>
-      <c r="F370" t="n">
-        <v>2057.193</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-941448.457582386</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="C371" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="D371" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E371" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="F371" t="n">
-        <v>12301.1107</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-929147.346882386</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="C372" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="D372" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="E372" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="F372" t="n">
-        <v>19135.4795</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-948282.826382386</v>
-      </c>
-      <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>54.59</v>
-      </c>
-      <c r="C373" t="n">
-        <v>53.05</v>
-      </c>
-      <c r="D373" t="n">
-        <v>54.59</v>
-      </c>
-      <c r="E373" t="n">
-        <v>53.05</v>
-      </c>
-      <c r="F373" t="n">
-        <v>17662.637</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-965945.463382386</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>54.6</v>
-      </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="C374" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="D374" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="E374" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="F374" t="n">
-        <v>2667.0908</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-963278.372582386</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>53.05</v>
-      </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>54.57</v>
-      </c>
-      <c r="C375" t="n">
-        <v>55</v>
-      </c>
-      <c r="D375" t="n">
-        <v>55</v>
-      </c>
-      <c r="E375" t="n">
-        <v>54.57</v>
-      </c>
-      <c r="F375" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-961278.372582386</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>53.25</v>
-      </c>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>53.31</v>
-      </c>
-      <c r="C376" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="D376" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="E376" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F376" t="n">
-        <v>14559.127</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-975837.499582386</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>55</v>
-      </c>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="C377" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="D377" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="E377" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="F377" t="n">
-        <v>2389.8176</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-978227.3171823859</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>54.89</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>53.43</v>
-      </c>
-      <c r="C378" t="n">
-        <v>53.43</v>
-      </c>
-      <c r="D378" t="n">
-        <v>53.43</v>
-      </c>
-      <c r="E378" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="F378" t="n">
-        <v>16225.5249</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-962001.792282386</v>
-      </c>
-      <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>53.32</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13019,7 +12929,9 @@
       <c r="I379" t="n">
         <v>53.43</v>
       </c>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13058,7 +12970,9 @@
       <c r="I380" t="n">
         <v>54.88</v>
       </c>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13097,7 +13011,9 @@
       <c r="I381" t="n">
         <v>53.4</v>
       </c>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13136,7 +13052,9 @@
       <c r="I382" t="n">
         <v>54</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13175,7 +13093,9 @@
       <c r="I383" t="n">
         <v>55.19</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13214,7 +13134,9 @@
       <c r="I384" t="n">
         <v>55.2</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13253,7 +13175,9 @@
       <c r="I385" t="n">
         <v>55.19</v>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13292,7 +13216,9 @@
       <c r="I386" t="n">
         <v>54.1</v>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13331,7 +13257,9 @@
       <c r="I387" t="n">
         <v>54.1</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13370,7 +13298,9 @@
       <c r="I388" t="n">
         <v>53.36</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13409,7 +13339,9 @@
       <c r="I389" t="n">
         <v>53.36</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13448,7 +13380,9 @@
       <c r="I390" t="n">
         <v>53.35</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13487,7 +13421,9 @@
       <c r="I391" t="n">
         <v>54.49</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13526,7 +13462,9 @@
       <c r="I392" t="n">
         <v>54.49</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13565,7 +13503,9 @@
       <c r="I393" t="n">
         <v>54.49</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13604,7 +13544,9 @@
       <c r="I394" t="n">
         <v>54.39</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13643,7 +13585,9 @@
       <c r="I395" t="n">
         <v>53.26</v>
       </c>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13682,7 +13626,9 @@
       <c r="I396" t="n">
         <v>54.51</v>
       </c>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13721,7 +13667,9 @@
       <c r="I397" t="n">
         <v>54.5</v>
       </c>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13760,7 +13708,9 @@
       <c r="I398" t="n">
         <v>55.7</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13794,10 +13744,14 @@
         <v>-786490.7624823861</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="J399" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13836,7 +13790,9 @@
       <c r="I400" t="n">
         <v>53.41</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13875,7 +13831,9 @@
       <c r="I401" t="n">
         <v>53.73</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13914,7 +13872,9 @@
       <c r="I402" t="n">
         <v>53.72</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13953,7 +13913,9 @@
       <c r="I403" t="n">
         <v>53.5</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13992,7 +13954,9 @@
       <c r="I404" t="n">
         <v>53.51</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14031,7 +13995,9 @@
       <c r="I405" t="n">
         <v>54.19</v>
       </c>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14070,7 +14036,9 @@
       <c r="I406" t="n">
         <v>54.31</v>
       </c>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14109,7 +14077,9 @@
       <c r="I407" t="n">
         <v>54.31</v>
       </c>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14148,7 +14118,9 @@
       <c r="I408" t="n">
         <v>54.19</v>
       </c>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14187,7 +14159,9 @@
       <c r="I409" t="n">
         <v>54.19</v>
       </c>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14226,7 +14200,9 @@
       <c r="I410" t="n">
         <v>54.1</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14265,7 +14241,9 @@
       <c r="I411" t="n">
         <v>54.1</v>
       </c>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14304,7 +14282,9 @@
       <c r="I412" t="n">
         <v>54.93</v>
       </c>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14343,7 +14323,9 @@
       <c r="I413" t="n">
         <v>53.81</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14382,7 +14364,9 @@
       <c r="I414" t="n">
         <v>54.12</v>
       </c>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14421,7 +14405,9 @@
       <c r="I415" t="n">
         <v>54.15</v>
       </c>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14460,7 +14446,9 @@
       <c r="I416" t="n">
         <v>54.2</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14499,7 +14487,9 @@
       <c r="I417" t="n">
         <v>54.31</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14538,7 +14528,9 @@
       <c r="I418" t="n">
         <v>54.97</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14577,7 +14569,9 @@
       <c r="I419" t="n">
         <v>55.24</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14616,7 +14610,9 @@
       <c r="I420" t="n">
         <v>55.7</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14655,7 +14651,9 @@
       <c r="I421" t="n">
         <v>55.82</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14694,7 +14692,9 @@
       <c r="I422" t="n">
         <v>57.63</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14733,7 +14733,9 @@
       <c r="I423" t="n">
         <v>55.86</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14772,7 +14774,9 @@
       <c r="I424" t="n">
         <v>55.86</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14806,10 +14810,14 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J425" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14843,10 +14851,14 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J426" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14880,10 +14892,14 @@
         <v>-747538.048282386</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="J427" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14922,7 +14938,9 @@
       <c r="I428" t="n">
         <v>56.1</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14956,10 +14974,14 @@
         <v>-740249.039982386</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>56.11</v>
+      </c>
+      <c r="J429" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14998,7 +15020,9 @@
       <c r="I430" t="n">
         <v>56.1</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15037,7 +15061,9 @@
       <c r="I431" t="n">
         <v>55.2</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15076,7 +15102,9 @@
       <c r="I432" t="n">
         <v>55.2</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15115,7 +15143,9 @@
       <c r="I433" t="n">
         <v>54.61</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15154,7 +15184,9 @@
       <c r="I434" t="n">
         <v>54.63</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15193,7 +15225,9 @@
       <c r="I435" t="n">
         <v>54.6</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15232,7 +15266,9 @@
       <c r="I436" t="n">
         <v>54.59</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15271,7 +15307,9 @@
       <c r="I437" t="n">
         <v>55.35</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15310,7 +15348,9 @@
       <c r="I438" t="n">
         <v>55.35</v>
       </c>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15349,7 +15389,9 @@
       <c r="I439" t="n">
         <v>56.39</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15388,7 +15430,9 @@
       <c r="I440" t="n">
         <v>54.63</v>
       </c>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15427,7 +15471,9 @@
       <c r="I441" t="n">
         <v>54.58</v>
       </c>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15466,7 +15512,9 @@
       <c r="I442" t="n">
         <v>56.02</v>
       </c>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15505,7 +15553,9 @@
       <c r="I443" t="n">
         <v>54.58</v>
       </c>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15544,7 +15594,9 @@
       <c r="I444" t="n">
         <v>54.99</v>
       </c>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15583,7 +15635,9 @@
       <c r="I445" t="n">
         <v>55.1</v>
       </c>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15622,7 +15676,9 @@
       <c r="I446" t="n">
         <v>55.3</v>
       </c>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15661,7 +15717,9 @@
       <c r="I447" t="n">
         <v>55.3</v>
       </c>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15700,7 +15758,9 @@
       <c r="I448" t="n">
         <v>54.99</v>
       </c>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15739,7 +15799,9 @@
       <c r="I449" t="n">
         <v>55.3</v>
       </c>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15778,7 +15840,9 @@
       <c r="I450" t="n">
         <v>55.3</v>
       </c>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15817,7 +15881,9 @@
       <c r="I451" t="n">
         <v>55.73</v>
       </c>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15856,7 +15922,9 @@
       <c r="I452" t="n">
         <v>55.73</v>
       </c>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15895,7 +15963,9 @@
       <c r="I453" t="n">
         <v>55.6</v>
       </c>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15934,7 +16004,9 @@
       <c r="I454" t="n">
         <v>55.45</v>
       </c>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15973,7 +16045,9 @@
       <c r="I455" t="n">
         <v>55.45</v>
       </c>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16012,7 +16086,9 @@
       <c r="I456" t="n">
         <v>55.45</v>
       </c>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16051,7 +16127,9 @@
       <c r="I457" t="n">
         <v>55.45</v>
       </c>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16090,7 +16168,9 @@
       <c r="I458" t="n">
         <v>56.15</v>
       </c>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16129,7 +16209,9 @@
       <c r="I459" t="n">
         <v>56.15</v>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16168,7 +16250,9 @@
       <c r="I460" t="n">
         <v>56.15</v>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16207,7 +16291,9 @@
       <c r="I461" t="n">
         <v>55.45</v>
       </c>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16246,7 +16332,9 @@
       <c r="I462" t="n">
         <v>55.64</v>
       </c>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16285,7 +16373,9 @@
       <c r="I463" t="n">
         <v>55.31</v>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16324,7 +16414,9 @@
       <c r="I464" t="n">
         <v>55.65</v>
       </c>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16363,7 +16455,9 @@
       <c r="I465" t="n">
         <v>56.69</v>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16402,7 +16496,9 @@
       <c r="I466" t="n">
         <v>56.89</v>
       </c>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16441,7 +16537,9 @@
       <c r="I467" t="n">
         <v>55.69</v>
       </c>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16480,7 +16578,9 @@
       <c r="I468" t="n">
         <v>55.8</v>
       </c>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16519,7 +16619,9 @@
       <c r="I469" t="n">
         <v>55.8</v>
       </c>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16558,7 +16660,9 @@
       <c r="I470" t="n">
         <v>56.57</v>
       </c>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16597,7 +16701,9 @@
       <c r="I471" t="n">
         <v>56.89</v>
       </c>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16636,7 +16742,9 @@
       <c r="I472" t="n">
         <v>57.19</v>
       </c>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16675,7 +16783,9 @@
       <c r="I473" t="n">
         <v>58.3</v>
       </c>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16712,7 +16822,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16746,12 +16858,12 @@
         <v>-975085.014875725</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>56.99</v>
-      </c>
-      <c r="J475" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16785,12 +16897,12 @@
         <v>-1087947.973675725</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>56.92</v>
-      </c>
-      <c r="J476" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16824,12 +16936,12 @@
         <v>-1007223.155075725</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="J477" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16863,12 +16975,12 @@
         <v>-948577.294675725</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="J478" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16902,12 +17014,12 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="J479" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16941,12 +17053,12 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>56.73</v>
-      </c>
-      <c r="J480" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16980,12 +17092,12 @@
         <v>-947716.770175725</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>56.73</v>
-      </c>
-      <c r="J481" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17019,12 +17131,12 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>56.73</v>
-      </c>
-      <c r="J482" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,12 +17170,12 @@
         <v>-947706.770175725</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>57.71</v>
-      </c>
-      <c r="J483" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17097,12 +17209,12 @@
         <v>-934276.454675725</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>57.71</v>
-      </c>
-      <c r="J484" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17139,7 +17251,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17176,7 +17290,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17213,7 +17329,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17250,7 +17368,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17287,7 +17407,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17324,7 +17446,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17361,7 +17485,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17398,7 +17524,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17435,7 +17563,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17472,7 +17602,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17509,7 +17641,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17546,7 +17680,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17583,7 +17719,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17620,7 +17758,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17657,7 +17797,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17694,7 +17836,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17731,7 +17875,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17768,7 +17914,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17805,7 +17953,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17842,7 +17992,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17879,7 +18031,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17916,7 +18070,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17953,7 +18109,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17990,7 +18148,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18027,7 +18187,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,7 +18226,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18101,7 +18265,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>54.89</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18135,1634 +18301,1934 @@
         <v>386950.9045854203</v>
       </c>
       <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L512" t="n">
+        <v>1</v>
+      </c>
+      <c r="M512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="C513" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="D513" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="E513" t="n">
+        <v>73.89</v>
+      </c>
+      <c r="F513" t="n">
+        <v>11680.4305</v>
+      </c>
+      <c r="G513" t="n">
+        <v>375270.4740854203</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L513" t="n">
+        <v>1</v>
+      </c>
+      <c r="M513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>73.88</v>
+      </c>
+      <c r="C514" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="D514" t="n">
+        <v>73.88</v>
+      </c>
+      <c r="E514" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="F514" t="n">
+        <v>93805.46709999999</v>
+      </c>
+      <c r="G514" t="n">
+        <v>281465.0069854203</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L514" t="n">
+        <v>1</v>
+      </c>
+      <c r="M514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>73.77</v>
+      </c>
+      <c r="C515" t="n">
+        <v>70.73</v>
+      </c>
+      <c r="D515" t="n">
+        <v>73.77</v>
+      </c>
+      <c r="E515" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="F515" t="n">
+        <v>63981.4777</v>
+      </c>
+      <c r="G515" t="n">
+        <v>345446.4846854203</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L515" t="n">
+        <v>1</v>
+      </c>
+      <c r="M515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="C516" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="D516" t="n">
+        <v>73.27</v>
+      </c>
+      <c r="E516" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="F516" t="n">
+        <v>76456.41318667941</v>
+      </c>
+      <c r="G516" t="n">
+        <v>421902.8978720997</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L516" t="n">
+        <v>1</v>
+      </c>
+      <c r="M516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>70.87</v>
+      </c>
+      <c r="C517" t="n">
+        <v>70.87</v>
+      </c>
+      <c r="D517" t="n">
+        <v>70.87</v>
+      </c>
+      <c r="E517" t="n">
+        <v>70.87</v>
+      </c>
+      <c r="F517" t="n">
+        <v>7102.5758</v>
+      </c>
+      <c r="G517" t="n">
+        <v>414800.3220720997</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L517" t="n">
+        <v>1</v>
+      </c>
+      <c r="M517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="C518" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="D518" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="E518" t="n">
+        <v>73.25</v>
+      </c>
+      <c r="F518" t="n">
+        <v>51694.6224</v>
+      </c>
+      <c r="G518" t="n">
+        <v>466494.9444720997</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L518" t="n">
+        <v>1</v>
+      </c>
+      <c r="M518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="C519" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="D519" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="E519" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="F519" t="n">
+        <v>5011.3451</v>
+      </c>
+      <c r="G519" t="n">
+        <v>466494.9444720997</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L519" t="n">
+        <v>1</v>
+      </c>
+      <c r="M519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C520" t="n">
+        <v>73</v>
+      </c>
+      <c r="D520" t="n">
+        <v>73</v>
+      </c>
+      <c r="E520" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="F520" t="n">
+        <v>80856.3083</v>
+      </c>
+      <c r="G520" t="n">
+        <v>385638.6361720997</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L520" t="n">
+        <v>1</v>
+      </c>
+      <c r="M520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>73</v>
+      </c>
+      <c r="C521" t="n">
+        <v>71</v>
+      </c>
+      <c r="D521" t="n">
+        <v>73</v>
+      </c>
+      <c r="E521" t="n">
+        <v>71</v>
+      </c>
+      <c r="F521" t="n">
+        <v>18993.048</v>
+      </c>
+      <c r="G521" t="n">
+        <v>366645.5881720997</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L521" t="n">
+        <v>1</v>
+      </c>
+      <c r="M521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="C522" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="D522" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="E522" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="F522" t="n">
+        <v>20502.1757818082</v>
+      </c>
+      <c r="G522" t="n">
+        <v>387147.7639539079</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
+      <c r="M522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="C523" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="D523" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="E523" t="n">
+        <v>72.68000000000001</v>
+      </c>
+      <c r="F523" t="n">
+        <v>2811.9481</v>
+      </c>
+      <c r="G523" t="n">
+        <v>384335.815853908</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L523" t="n">
+        <v>1</v>
+      </c>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C524" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="D524" t="n">
+        <v>72.89</v>
+      </c>
+      <c r="E524" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="F524" t="n">
+        <v>42650.4156</v>
+      </c>
+      <c r="G524" t="n">
+        <v>426986.231453908</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L524" t="n">
+        <v>1</v>
+      </c>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="C525" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="D525" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="E525" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F525" t="n">
+        <v>42392.3319</v>
+      </c>
+      <c r="G525" t="n">
+        <v>384593.899553908</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="C526" t="n">
+        <v>72.98999999999999</v>
+      </c>
+      <c r="D526" t="n">
+        <v>73</v>
+      </c>
+      <c r="E526" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="F526" t="n">
+        <v>51407.3348</v>
+      </c>
+      <c r="G526" t="n">
+        <v>436001.234353908</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="C527" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="D527" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="E527" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="F527" t="n">
+        <v>1565.9626</v>
+      </c>
+      <c r="G527" t="n">
+        <v>434435.271753908</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="C528" t="n">
+        <v>73</v>
+      </c>
+      <c r="D528" t="n">
+        <v>73</v>
+      </c>
+      <c r="E528" t="n">
+        <v>72.88</v>
+      </c>
+      <c r="F528" t="n">
+        <v>60454.5859</v>
+      </c>
+      <c r="G528" t="n">
+        <v>494889.857653908</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>73</v>
+      </c>
+      <c r="C529" t="n">
+        <v>73</v>
+      </c>
+      <c r="D529" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="E529" t="n">
+        <v>73</v>
+      </c>
+      <c r="F529" t="n">
+        <v>150260.4198654382</v>
+      </c>
+      <c r="G529" t="n">
+        <v>494889.857653908</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="C530" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="D530" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="E530" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="F530" t="n">
+        <v>5675.3266</v>
+      </c>
+      <c r="G530" t="n">
+        <v>500565.184253908</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>73</v>
+      </c>
+      <c r="C531" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="D531" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="E531" t="n">
+        <v>73</v>
+      </c>
+      <c r="F531" t="n">
+        <v>71909.863</v>
+      </c>
+      <c r="G531" t="n">
+        <v>500565.184253908</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>73.26000000000001</v>
+      </c>
+      <c r="C532" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D532" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E532" t="n">
+        <v>73</v>
+      </c>
+      <c r="F532" t="n">
+        <v>276853.6253345619</v>
+      </c>
+      <c r="G532" t="n">
+        <v>777418.8095884699</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C533" t="n">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="D533" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E533" t="n">
+        <v>73.01000000000001</v>
+      </c>
+      <c r="F533" t="n">
+        <v>236449.4672</v>
+      </c>
+      <c r="G533" t="n">
+        <v>540969.34238847</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>73.12</v>
+      </c>
+      <c r="C534" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="D534" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E534" t="n">
+        <v>73.12</v>
+      </c>
+      <c r="F534" t="n">
+        <v>337.7736928129206</v>
+      </c>
+      <c r="G534" t="n">
+        <v>541307.1160812828</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="C535" t="n">
+        <v>77</v>
+      </c>
+      <c r="D535" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E535" t="n">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="F535" t="n">
+        <v>234889.8110071871</v>
+      </c>
+      <c r="G535" t="n">
+        <v>776196.92708847</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>77</v>
+      </c>
+      <c r="C536" t="n">
+        <v>77.52</v>
+      </c>
+      <c r="D536" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E536" t="n">
+        <v>77</v>
+      </c>
+      <c r="F536" t="n">
+        <v>168992.8375</v>
+      </c>
+      <c r="G536" t="n">
+        <v>945189.76458847</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="C537" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="D537" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="E537" t="n">
+        <v>75.11</v>
+      </c>
+      <c r="F537" t="n">
+        <v>72648.64401046511</v>
+      </c>
+      <c r="G537" t="n">
+        <v>872541.1205780049</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="C538" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="D538" t="n">
+        <v>77.39</v>
+      </c>
+      <c r="E538" t="n">
+        <v>77.37</v>
+      </c>
+      <c r="F538" t="n">
+        <v>50204.5932</v>
+      </c>
+      <c r="G538" t="n">
+        <v>822336.5273780049</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="C539" t="n">
+        <v>81</v>
+      </c>
+      <c r="D539" t="n">
+        <v>81</v>
+      </c>
+      <c r="E539" t="n">
+        <v>77.38</v>
+      </c>
+      <c r="F539" t="n">
+        <v>471914.7605</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1294251.287878005</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>81.06999999999999</v>
+      </c>
+      <c r="C540" t="n">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="D540" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="E540" t="n">
+        <v>80.31</v>
+      </c>
+      <c r="F540" t="n">
+        <v>168373.460045728</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1462624.747923733</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="C541" t="n">
+        <v>81</v>
+      </c>
+      <c r="D541" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="E541" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="F541" t="n">
+        <v>28051.04853951079</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1434573.699384222</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="C542" t="n">
+        <v>86</v>
+      </c>
+      <c r="D542" t="n">
+        <v>86</v>
+      </c>
+      <c r="E542" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="F542" t="n">
+        <v>384133.3498</v>
+      </c>
+      <c r="G542" t="n">
+        <v>1818707.049184222</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>85</v>
+      </c>
+      <c r="C543" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="D543" t="n">
+        <v>85.13</v>
+      </c>
+      <c r="E543" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="F543" t="n">
+        <v>112516.3227</v>
+      </c>
+      <c r="G543" t="n">
+        <v>1706190.726484222</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="C544" t="n">
+        <v>82.94</v>
+      </c>
+      <c r="D544" t="n">
+        <v>82.97</v>
+      </c>
+      <c r="E544" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="F544" t="n">
+        <v>67962.89987498493</v>
+      </c>
+      <c r="G544" t="n">
+        <v>1774153.626359207</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>82.8</v>
+      </c>
+      <c r="C545" t="n">
+        <v>82.66</v>
+      </c>
+      <c r="D545" t="n">
+        <v>82.95</v>
+      </c>
+      <c r="E545" t="n">
+        <v>79.17</v>
+      </c>
+      <c r="F545" t="n">
+        <v>86489.69763019892</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1687663.928729008</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="C546" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="D546" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="E546" t="n">
+        <v>82.55</v>
+      </c>
+      <c r="F546" t="n">
+        <v>230.509</v>
+      </c>
+      <c r="G546" t="n">
+        <v>1687433.419729008</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>82.34</v>
+      </c>
+      <c r="C547" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="D547" t="n">
+        <v>82.45999999999999</v>
+      </c>
+      <c r="E547" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="F547" t="n">
+        <v>31514.8491</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1655918.570629008</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>80.12</v>
+      </c>
+      <c r="C548" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D548" t="n">
+        <v>82.08</v>
+      </c>
+      <c r="E548" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="F548" t="n">
+        <v>55116.14465034113</v>
+      </c>
+      <c r="G548" t="n">
+        <v>1600802.425978667</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="C549" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="D549" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E549" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F549" t="n">
+        <v>64959.68467777778</v>
+      </c>
+      <c r="G549" t="n">
+        <v>1535842.741300889</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>72.38</v>
+      </c>
+      <c r="C550" t="n">
+        <v>75.11</v>
+      </c>
+      <c r="D550" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E550" t="n">
+        <v>72.38</v>
+      </c>
+      <c r="F550" t="n">
+        <v>9430.688222222223</v>
+      </c>
+      <c r="G550" t="n">
+        <v>1526412.053078667</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>75.42</v>
+      </c>
+      <c r="C551" t="n">
+        <v>75.42</v>
+      </c>
+      <c r="D551" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="E551" t="n">
+        <v>75.42</v>
+      </c>
+      <c r="F551" t="n">
+        <v>2885.216</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1529297.269078667</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C552" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="D552" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E552" t="n">
+        <v>75.97</v>
+      </c>
+      <c r="F552" t="n">
+        <v>70158.8993</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1599456.168378667</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="C553" t="n">
+        <v>81.94</v>
+      </c>
+      <c r="D553" t="n">
+        <v>86.88</v>
+      </c>
+      <c r="E553" t="n">
+        <v>78.53</v>
+      </c>
+      <c r="F553" t="n">
+        <v>234255.0754808702</v>
+      </c>
+      <c r="G553" t="n">
+        <v>1833711.243859537</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="C554" t="n">
+        <v>82.11</v>
+      </c>
+      <c r="D554" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="E554" t="n">
+        <v>78.81</v>
+      </c>
+      <c r="F554" t="n">
+        <v>169920.4416781023</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2003631.68553764</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="C555" t="n">
+        <v>86.22</v>
+      </c>
+      <c r="D555" t="n">
+        <v>86.78</v>
+      </c>
+      <c r="E555" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="F555" t="n">
+        <v>57499.60639808712</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2061131.291935727</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="C556" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="D556" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="E556" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F556" t="n">
+        <v>76685.16680000001</v>
+      </c>
+      <c r="G556" t="n">
+        <v>1984446.125135727</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="C557" t="n">
+        <v>84.73</v>
+      </c>
+      <c r="D557" t="n">
+        <v>86.83</v>
+      </c>
+      <c r="E557" t="n">
+        <v>84.73</v>
+      </c>
+      <c r="F557" t="n">
+        <v>188307.4331</v>
+      </c>
+      <c r="G557" t="n">
+        <v>1796138.692035727</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="C558" t="n">
+        <v>87</v>
+      </c>
+      <c r="D558" t="n">
+        <v>87</v>
+      </c>
+      <c r="E558" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F558" t="n">
+        <v>54056.9525</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1850195.644535727</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>87</v>
+      </c>
+      <c r="C559" t="n">
+        <v>89.03</v>
+      </c>
+      <c r="D559" t="n">
+        <v>89.03</v>
+      </c>
+      <c r="E559" t="n">
+        <v>87</v>
+      </c>
+      <c r="F559" t="n">
+        <v>137963.3087191298</v>
+      </c>
+      <c r="G559" t="n">
+        <v>1988158.953254856</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>89.03</v>
+      </c>
+      <c r="C560" t="n">
+        <v>92.81</v>
+      </c>
+      <c r="D560" t="n">
+        <v>96.75</v>
+      </c>
+      <c r="E560" t="n">
+        <v>89.03</v>
+      </c>
+      <c r="F560" t="n">
+        <v>575501.5246507314</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2563660.477905588</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>92.78</v>
+      </c>
+      <c r="C561" t="n">
+        <v>94.97</v>
+      </c>
+      <c r="D561" t="n">
+        <v>95</v>
+      </c>
+      <c r="E561" t="n">
+        <v>90</v>
+      </c>
+      <c r="F561" t="n">
+        <v>113968.5993758621</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2677629.07728145</v>
+      </c>
+      <c r="H561" t="n">
         <v>2</v>
       </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>54.89</v>
+      </c>
+      <c r="K561" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L512" t="inlineStr"/>
-      <c r="M512" t="inlineStr"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="C513" t="n">
-        <v>73.89</v>
-      </c>
-      <c r="D513" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="E513" t="n">
-        <v>73.89</v>
-      </c>
-      <c r="F513" t="n">
-        <v>11680.4305</v>
-      </c>
-      <c r="G513" t="n">
-        <v>375270.4740854203</v>
-      </c>
-      <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="n">
-        <v>1</v>
-      </c>
-      <c r="M513" t="inlineStr"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="n">
-        <v>73.88</v>
-      </c>
-      <c r="C514" t="n">
-        <v>70.59999999999999</v>
-      </c>
-      <c r="D514" t="n">
-        <v>73.88</v>
-      </c>
-      <c r="E514" t="n">
-        <v>70.38</v>
-      </c>
-      <c r="F514" t="n">
-        <v>93805.46709999999</v>
-      </c>
-      <c r="G514" t="n">
-        <v>281465.0069854203</v>
-      </c>
-      <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="n">
-        <v>1</v>
-      </c>
-      <c r="M514" t="inlineStr"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="n">
-        <v>73.77</v>
-      </c>
-      <c r="C515" t="n">
-        <v>70.73</v>
-      </c>
-      <c r="D515" t="n">
-        <v>73.77</v>
-      </c>
-      <c r="E515" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="F515" t="n">
-        <v>63981.4777</v>
-      </c>
-      <c r="G515" t="n">
-        <v>345446.4846854203</v>
-      </c>
-      <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="n">
-        <v>1</v>
-      </c>
-      <c r="M515" t="inlineStr"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="C516" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="D516" t="n">
-        <v>73.27</v>
-      </c>
-      <c r="E516" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="F516" t="n">
-        <v>76456.41318667941</v>
-      </c>
-      <c r="G516" t="n">
-        <v>421902.8978720997</v>
-      </c>
-      <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="n">
-        <v>1</v>
-      </c>
-      <c r="M516" t="inlineStr"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="n">
-        <v>70.87</v>
-      </c>
-      <c r="C517" t="n">
-        <v>70.87</v>
-      </c>
-      <c r="D517" t="n">
-        <v>70.87</v>
-      </c>
-      <c r="E517" t="n">
-        <v>70.87</v>
-      </c>
-      <c r="F517" t="n">
-        <v>7102.5758</v>
-      </c>
-      <c r="G517" t="n">
-        <v>414800.3220720997</v>
-      </c>
-      <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="n">
-        <v>1</v>
-      </c>
-      <c r="M517" t="inlineStr"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>73.25</v>
-      </c>
-      <c r="C518" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="D518" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="E518" t="n">
-        <v>73.25</v>
-      </c>
-      <c r="F518" t="n">
-        <v>51694.6224</v>
-      </c>
-      <c r="G518" t="n">
-        <v>466494.9444720997</v>
-      </c>
-      <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="n">
-        <v>1</v>
-      </c>
-      <c r="M518" t="inlineStr"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="C519" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="D519" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="E519" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="F519" t="n">
-        <v>5011.3451</v>
-      </c>
-      <c r="G519" t="n">
-        <v>466494.9444720997</v>
-      </c>
-      <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="n">
-        <v>1</v>
-      </c>
-      <c r="M519" t="inlineStr"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="C520" t="n">
-        <v>73</v>
-      </c>
-      <c r="D520" t="n">
-        <v>73</v>
-      </c>
-      <c r="E520" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="F520" t="n">
-        <v>80856.3083</v>
-      </c>
-      <c r="G520" t="n">
-        <v>385638.6361720997</v>
-      </c>
-      <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="n">
-        <v>1</v>
-      </c>
-      <c r="M520" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>73</v>
-      </c>
-      <c r="C521" t="n">
-        <v>71</v>
-      </c>
-      <c r="D521" t="n">
-        <v>73</v>
-      </c>
-      <c r="E521" t="n">
-        <v>71</v>
-      </c>
-      <c r="F521" t="n">
-        <v>18993.048</v>
-      </c>
-      <c r="G521" t="n">
-        <v>366645.5881720997</v>
-      </c>
-      <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="n">
-        <v>1</v>
-      </c>
-      <c r="M521" t="inlineStr"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="C522" t="n">
-        <v>72.89</v>
-      </c>
-      <c r="D522" t="n">
-        <v>72.89</v>
-      </c>
-      <c r="E522" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="F522" t="n">
-        <v>20502.1757818082</v>
-      </c>
-      <c r="G522" t="n">
-        <v>387147.7639539079</v>
-      </c>
-      <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="n">
-        <v>1</v>
-      </c>
-      <c r="M522" t="inlineStr"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>72.68000000000001</v>
-      </c>
-      <c r="C523" t="n">
-        <v>72.68000000000001</v>
-      </c>
-      <c r="D523" t="n">
-        <v>72.68000000000001</v>
-      </c>
-      <c r="E523" t="n">
-        <v>72.68000000000001</v>
-      </c>
-      <c r="F523" t="n">
-        <v>2811.9481</v>
-      </c>
-      <c r="G523" t="n">
-        <v>384335.815853908</v>
-      </c>
-      <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="n">
-        <v>1</v>
-      </c>
-      <c r="M523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="C524" t="n">
-        <v>72.89</v>
-      </c>
-      <c r="D524" t="n">
-        <v>72.89</v>
-      </c>
-      <c r="E524" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F524" t="n">
-        <v>42650.4156</v>
-      </c>
-      <c r="G524" t="n">
-        <v>426986.231453908</v>
-      </c>
-      <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
-      <c r="M524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="C525" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="D525" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="E525" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="F525" t="n">
-        <v>42392.3319</v>
-      </c>
-      <c r="G525" t="n">
-        <v>384593.899553908</v>
-      </c>
-      <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="C526" t="n">
-        <v>72.98999999999999</v>
-      </c>
-      <c r="D526" t="n">
-        <v>73</v>
-      </c>
-      <c r="E526" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="F526" t="n">
-        <v>51407.3348</v>
-      </c>
-      <c r="G526" t="n">
-        <v>436001.234353908</v>
-      </c>
-      <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="C527" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="D527" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="E527" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="F527" t="n">
-        <v>1565.9626</v>
-      </c>
-      <c r="G527" t="n">
-        <v>434435.271753908</v>
-      </c>
-      <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="C528" t="n">
-        <v>73</v>
-      </c>
-      <c r="D528" t="n">
-        <v>73</v>
-      </c>
-      <c r="E528" t="n">
-        <v>72.88</v>
-      </c>
-      <c r="F528" t="n">
-        <v>60454.5859</v>
-      </c>
-      <c r="G528" t="n">
-        <v>494889.857653908</v>
-      </c>
-      <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>73</v>
-      </c>
-      <c r="C529" t="n">
-        <v>73</v>
-      </c>
-      <c r="D529" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="E529" t="n">
-        <v>73</v>
-      </c>
-      <c r="F529" t="n">
-        <v>150260.4198654382</v>
-      </c>
-      <c r="G529" t="n">
-        <v>494889.857653908</v>
-      </c>
-      <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="C530" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="D530" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="E530" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="F530" t="n">
-        <v>5675.3266</v>
-      </c>
-      <c r="G530" t="n">
-        <v>500565.184253908</v>
-      </c>
-      <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>73</v>
-      </c>
-      <c r="C531" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="D531" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="E531" t="n">
-        <v>73</v>
-      </c>
-      <c r="F531" t="n">
-        <v>71909.863</v>
-      </c>
-      <c r="G531" t="n">
-        <v>500565.184253908</v>
-      </c>
-      <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="C532" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="D532" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E532" t="n">
-        <v>73</v>
-      </c>
-      <c r="F532" t="n">
-        <v>276853.6253345619</v>
-      </c>
-      <c r="G532" t="n">
-        <v>777418.8095884699</v>
-      </c>
-      <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="C533" t="n">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="D533" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E533" t="n">
-        <v>73.01000000000001</v>
-      </c>
-      <c r="F533" t="n">
-        <v>236449.4672</v>
-      </c>
-      <c r="G533" t="n">
-        <v>540969.34238847</v>
-      </c>
-      <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>73.12</v>
-      </c>
-      <c r="C534" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="D534" t="n">
-        <v>74.3</v>
-      </c>
-      <c r="E534" t="n">
-        <v>73.12</v>
-      </c>
-      <c r="F534" t="n">
-        <v>337.7736928129206</v>
-      </c>
-      <c r="G534" t="n">
-        <v>541307.1160812828</v>
-      </c>
-      <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>74.29000000000001</v>
-      </c>
-      <c r="C535" t="n">
-        <v>77</v>
-      </c>
-      <c r="D535" t="n">
-        <v>77.09999999999999</v>
-      </c>
-      <c r="E535" t="n">
-        <v>74.29000000000001</v>
-      </c>
-      <c r="F535" t="n">
-        <v>234889.8110071871</v>
-      </c>
-      <c r="G535" t="n">
-        <v>776196.92708847</v>
-      </c>
-      <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>77</v>
-      </c>
-      <c r="C536" t="n">
-        <v>77.52</v>
-      </c>
-      <c r="D536" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="E536" t="n">
-        <v>77</v>
-      </c>
-      <c r="F536" t="n">
-        <v>168992.8375</v>
-      </c>
-      <c r="G536" t="n">
-        <v>945189.76458847</v>
-      </c>
-      <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="C537" t="n">
-        <v>77.39</v>
-      </c>
-      <c r="D537" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="E537" t="n">
-        <v>75.11</v>
-      </c>
-      <c r="F537" t="n">
-        <v>72648.64401046511</v>
-      </c>
-      <c r="G537" t="n">
-        <v>872541.1205780049</v>
-      </c>
-      <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>77.39</v>
-      </c>
-      <c r="C538" t="n">
-        <v>77.38</v>
-      </c>
-      <c r="D538" t="n">
-        <v>77.39</v>
-      </c>
-      <c r="E538" t="n">
-        <v>77.37</v>
-      </c>
-      <c r="F538" t="n">
-        <v>50204.5932</v>
-      </c>
-      <c r="G538" t="n">
-        <v>822336.5273780049</v>
-      </c>
-      <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>77.38</v>
-      </c>
-      <c r="C539" t="n">
-        <v>81</v>
-      </c>
-      <c r="D539" t="n">
-        <v>81</v>
-      </c>
-      <c r="E539" t="n">
-        <v>77.38</v>
-      </c>
-      <c r="F539" t="n">
-        <v>471914.7605</v>
-      </c>
-      <c r="G539" t="n">
-        <v>1294251.287878005</v>
-      </c>
-      <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="C540" t="n">
-        <v>81.09999999999999</v>
-      </c>
-      <c r="D540" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="E540" t="n">
-        <v>80.31</v>
-      </c>
-      <c r="F540" t="n">
-        <v>168373.460045728</v>
-      </c>
-      <c r="G540" t="n">
-        <v>1462624.747923733</v>
-      </c>
-      <c r="H540" t="n">
-        <v>2</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="C541" t="n">
-        <v>81</v>
-      </c>
-      <c r="D541" t="n">
-        <v>82.98999999999999</v>
-      </c>
-      <c r="E541" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="F541" t="n">
-        <v>28051.04853951079</v>
-      </c>
-      <c r="G541" t="n">
-        <v>1434573.699384222</v>
-      </c>
-      <c r="H541" t="n">
-        <v>2</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>82.91</v>
-      </c>
-      <c r="C542" t="n">
-        <v>86</v>
-      </c>
-      <c r="D542" t="n">
-        <v>86</v>
-      </c>
-      <c r="E542" t="n">
-        <v>82.91</v>
-      </c>
-      <c r="F542" t="n">
-        <v>384133.3498</v>
-      </c>
-      <c r="G542" t="n">
-        <v>1818707.049184222</v>
-      </c>
-      <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>85</v>
-      </c>
-      <c r="C543" t="n">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="D543" t="n">
-        <v>85.13</v>
-      </c>
-      <c r="E543" t="n">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="F543" t="n">
-        <v>112516.3227</v>
-      </c>
-      <c r="G543" t="n">
-        <v>1706190.726484222</v>
-      </c>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="C544" t="n">
-        <v>82.94</v>
-      </c>
-      <c r="D544" t="n">
-        <v>82.97</v>
-      </c>
-      <c r="E544" t="n">
-        <v>77.14</v>
-      </c>
-      <c r="F544" t="n">
-        <v>67962.89987498493</v>
-      </c>
-      <c r="G544" t="n">
-        <v>1774153.626359207</v>
-      </c>
-      <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>82.8</v>
-      </c>
-      <c r="C545" t="n">
-        <v>82.66</v>
-      </c>
-      <c r="D545" t="n">
-        <v>82.95</v>
-      </c>
-      <c r="E545" t="n">
-        <v>79.17</v>
-      </c>
-      <c r="F545" t="n">
-        <v>86489.69763019892</v>
-      </c>
-      <c r="G545" t="n">
-        <v>1687663.928729008</v>
-      </c>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="C546" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="D546" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="E546" t="n">
-        <v>82.55</v>
-      </c>
-      <c r="F546" t="n">
-        <v>230.509</v>
-      </c>
-      <c r="G546" t="n">
-        <v>1687433.419729008</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>82.34</v>
-      </c>
-      <c r="C547" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="D547" t="n">
-        <v>82.45999999999999</v>
-      </c>
-      <c r="E547" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="F547" t="n">
-        <v>31514.8491</v>
-      </c>
-      <c r="G547" t="n">
-        <v>1655918.570629008</v>
-      </c>
-      <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>80.12</v>
-      </c>
-      <c r="C548" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D548" t="n">
-        <v>82.08</v>
-      </c>
-      <c r="E548" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F548" t="n">
-        <v>55116.14465034113</v>
-      </c>
-      <c r="G548" t="n">
-        <v>1600802.425978667</v>
-      </c>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="C549" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="D549" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E549" t="n">
-        <v>74.98</v>
-      </c>
-      <c r="F549" t="n">
-        <v>64959.68467777778</v>
-      </c>
-      <c r="G549" t="n">
-        <v>1535842.741300889</v>
-      </c>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>72.38</v>
-      </c>
-      <c r="C550" t="n">
-        <v>75.11</v>
-      </c>
-      <c r="D550" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E550" t="n">
-        <v>72.38</v>
-      </c>
-      <c r="F550" t="n">
-        <v>9430.688222222223</v>
-      </c>
-      <c r="G550" t="n">
-        <v>1526412.053078667</v>
-      </c>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>75.42</v>
-      </c>
-      <c r="C551" t="n">
-        <v>75.42</v>
-      </c>
-      <c r="D551" t="n">
-        <v>78.83</v>
-      </c>
-      <c r="E551" t="n">
-        <v>75.42</v>
-      </c>
-      <c r="F551" t="n">
-        <v>2885.216</v>
-      </c>
-      <c r="G551" t="n">
-        <v>1529297.269078667</v>
-      </c>
-      <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="C552" t="n">
-        <v>78.55</v>
-      </c>
-      <c r="D552" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E552" t="n">
-        <v>75.97</v>
-      </c>
-      <c r="F552" t="n">
-        <v>70158.8993</v>
-      </c>
-      <c r="G552" t="n">
-        <v>1599456.168378667</v>
-      </c>
-      <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>78.53</v>
-      </c>
-      <c r="C553" t="n">
-        <v>81.94</v>
-      </c>
-      <c r="D553" t="n">
-        <v>86.88</v>
-      </c>
-      <c r="E553" t="n">
-        <v>78.53</v>
-      </c>
-      <c r="F553" t="n">
-        <v>234255.0754808702</v>
-      </c>
-      <c r="G553" t="n">
-        <v>1833711.243859537</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="C554" t="n">
-        <v>82.11</v>
-      </c>
-      <c r="D554" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="E554" t="n">
-        <v>78.81</v>
-      </c>
-      <c r="F554" t="n">
-        <v>169920.4416781023</v>
-      </c>
-      <c r="G554" t="n">
-        <v>2003631.68553764</v>
-      </c>
-      <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="C555" t="n">
-        <v>86.22</v>
-      </c>
-      <c r="D555" t="n">
-        <v>86.78</v>
-      </c>
-      <c r="E555" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="F555" t="n">
-        <v>57499.60639808712</v>
-      </c>
-      <c r="G555" t="n">
-        <v>2061131.291935727</v>
-      </c>
-      <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="C556" t="n">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="D556" t="n">
-        <v>86.3</v>
-      </c>
-      <c r="E556" t="n">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="F556" t="n">
-        <v>76685.16680000001</v>
-      </c>
-      <c r="G556" t="n">
-        <v>1984446.125135727</v>
-      </c>
-      <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="C557" t="n">
-        <v>84.73</v>
-      </c>
-      <c r="D557" t="n">
-        <v>86.83</v>
-      </c>
-      <c r="E557" t="n">
-        <v>84.73</v>
-      </c>
-      <c r="F557" t="n">
-        <v>188307.4331</v>
-      </c>
-      <c r="G557" t="n">
-        <v>1796138.692035727</v>
-      </c>
-      <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="C558" t="n">
-        <v>87</v>
-      </c>
-      <c r="D558" t="n">
-        <v>87</v>
-      </c>
-      <c r="E558" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="F558" t="n">
-        <v>54056.9525</v>
-      </c>
-      <c r="G558" t="n">
-        <v>1850195.644535727</v>
-      </c>
-      <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>87</v>
-      </c>
-      <c r="C559" t="n">
-        <v>89.03</v>
-      </c>
-      <c r="D559" t="n">
-        <v>89.03</v>
-      </c>
-      <c r="E559" t="n">
-        <v>87</v>
-      </c>
-      <c r="F559" t="n">
-        <v>137963.3087191298</v>
-      </c>
-      <c r="G559" t="n">
-        <v>1988158.953254856</v>
-      </c>
-      <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>89.03</v>
-      </c>
-      <c r="C560" t="n">
-        <v>92.81</v>
-      </c>
-      <c r="D560" t="n">
-        <v>96.75</v>
-      </c>
-      <c r="E560" t="n">
-        <v>89.03</v>
-      </c>
-      <c r="F560" t="n">
-        <v>575501.5246507314</v>
-      </c>
-      <c r="G560" t="n">
-        <v>2563660.477905588</v>
-      </c>
-      <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>92.78</v>
-      </c>
-      <c r="C561" t="n">
-        <v>94.97</v>
-      </c>
-      <c r="D561" t="n">
-        <v>95</v>
-      </c>
-      <c r="E561" t="n">
-        <v>90</v>
-      </c>
-      <c r="F561" t="n">
-        <v>113968.5993758621</v>
-      </c>
-      <c r="G561" t="n">
-        <v>2677629.07728145</v>
-      </c>
-      <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
+        <v>1.725187648023319</v>
+      </c>
+      <c r="M561" t="n">
+        <v>1.405089538171536</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -19787,7 +20253,7 @@
         <v>2441953.089431073</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19820,7 +20286,7 @@
         <v>2192808.174431073</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19853,7 +20319,7 @@
         <v>2301965.737443771</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19886,7 +20352,7 @@
         <v>2134723.414128828</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19919,7 +20385,7 @@
         <v>2238465.002438257</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19952,7 +20418,7 @@
         <v>2282725.697974436</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19985,7 +20451,7 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20018,7 +20484,7 @@
         <v>2345447.396999546</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20051,7 +20517,7 @@
         <v>2304193.471099546</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20084,7 +20550,7 @@
         <v>2272916.502399546</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20117,7 +20583,7 @@
         <v>2460999.684399546</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20150,7 +20616,7 @@
         <v>2238588.752399546</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20183,7 +20649,7 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20216,7 +20682,7 @@
         <v>2332385.408899546</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20249,7 +20715,7 @@
         <v>2314593.103199546</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20282,7 +20748,7 @@
         <v>2316777.692499546</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20315,7 +20781,7 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20348,7 +20814,7 @@
         <v>2302403.048936592</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20381,7 +20847,7 @@
         <v>2248485.379636592</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20447,7 +20913,7 @@
         <v>2203085.752436592</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20546,7 +21012,7 @@
         <v>2062475.27491862</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20579,7 +21045,7 @@
         <v>2236639.143900648</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -24077,7 +24543,7 @@
         <v>2114836.468960032</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
